--- a/Proyecto_DEL/BB_Tag.xlsx
+++ b/Proyecto_DEL/BB_Tag.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateocalderon/Desktop/Proyecto_DEL/Proyecto_DEL/Talacha_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateocalderon/Desktop/Proyecto_DEL/Proyecto_DEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5712A99-9B33-A843-AA8D-8BBC3CF9BA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB9846A-C15E-A243-AD0D-74CF132060B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="500" windowWidth="13340" windowHeight="16140" xr2:uid="{CC0B0F44-B656-6842-933E-F9F9C47266CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CC0B0F44-B656-6842-933E-F9F9C47266CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -79,16 +79,16 @@
     <t>OC(C(CC1)CN1c1ccccc1)=O</t>
   </si>
   <si>
-    <t>N=[N+]=NCC1CCCC1</t>
-  </si>
-  <si>
-    <t>N=[N+]=NCc1ccccc1</t>
-  </si>
-  <si>
-    <t>N=[N+]=NCC1CCCCCC1</t>
-  </si>
-  <si>
     <t>C#CCC(c1ccccc1)N</t>
+  </si>
+  <si>
+    <t>C1CCCC1C[N-]-[N+]#N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C[N-]-[N+]#N</t>
+  </si>
+  <si>
+    <t>C1CCCCCC1C[N-]-[N+]#N</t>
   </si>
 </sst>
 </file>
@@ -137,14 +137,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,91 +461,83 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
       <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
       <c r="C5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/Proyecto_DEL/BB_Tag.xlsx
+++ b/Proyecto_DEL/BB_Tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateocalderon/Desktop/Proyecto_DEL/Proyecto_DEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB9846A-C15E-A243-AD0D-74CF132060B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4BB702-87E0-2C4A-B948-2B1DEE78E23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CC0B0F44-B656-6842-933E-F9F9C47266CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="15940" xr2:uid="{CC0B0F44-B656-6842-933E-F9F9C47266CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>GTTGGGGGTTG</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>C1CCCCCC1C[N-]-[N+]#N</t>
+  </si>
+  <si>
+    <t>O=C(O)C2CCCN(c1ccccc1)C2</t>
+  </si>
+  <si>
+    <t>CC(=O)C3Nc1c(C)c(C)ccc1C2C=C(N=[N+]=N)CC23</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,9 +548,15 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Proyecto_DEL/BB_Tag.xlsx
+++ b/Proyecto_DEL/BB_Tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateocalderon/Desktop/Proyecto_DEL/Proyecto_DEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4BB702-87E0-2C4A-B948-2B1DEE78E23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7612811F-7136-1545-B2E0-B834A0D4230F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="10000" windowHeight="15940" xr2:uid="{CC0B0F44-B656-6842-933E-F9F9C47266CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{CC0B0F44-B656-6842-933E-F9F9C47266CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>GTTGGGGGTTG</t>
   </si>
@@ -64,44 +64,110 @@
     <t>DNA-Tag</t>
   </si>
   <si>
-    <t>SMILES</t>
-  </si>
-  <si>
-    <t>C#CC(c1ccccc1)N</t>
-  </si>
-  <si>
-    <t>OC(c1cc(Oc2ccccc2)ccc1)=O</t>
-  </si>
-  <si>
-    <t>OC(CC(CC1)CCC1C(F)(F)F)=O</t>
-  </si>
-  <si>
-    <t>OC(C(CC1)CN1c1ccccc1)=O</t>
-  </si>
-  <si>
-    <t>C#CCC(c1ccccc1)N</t>
-  </si>
-  <si>
-    <t>C1CCCC1C[N-]-[N+]#N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C[N-]-[N+]#N</t>
-  </si>
-  <si>
-    <t>C1CCCCCC1C[N-]-[N+]#N</t>
-  </si>
-  <si>
-    <t>O=C(O)C2CCCN(c1ccccc1)C2</t>
-  </si>
-  <si>
-    <t>CC(=O)C3Nc1c(C)c(C)ccc1C2C=C(N=[N+]=N)CC23</t>
+    <t>O[C@@H](CNCC1)[C@H]1c1ccccc1</t>
+  </si>
+  <si>
+    <t>O=C1CNCC(CO)C1</t>
+  </si>
+  <si>
+    <t>CNC2CC(CO)CC(c1ccccc1)C2</t>
+  </si>
+  <si>
+    <t>OCC2C=C(N1CCCC1)CC3=C2CCNCC3</t>
+  </si>
+  <si>
+    <t>CC(=O)CC2CCC1NCC=CCC1C2</t>
+  </si>
+  <si>
+    <t>OCCCC2CNC(c1ccccc1)C2</t>
+  </si>
+  <si>
+    <t>Oc3ccc(C1NCC(O)C1c2ccccc2)cc3</t>
+  </si>
+  <si>
+    <t>CNc1cccc2cc(CCO)c(Cl)cc12</t>
+  </si>
+  <si>
+    <t>OC(Oc1ccccc1)C2CCNCC2</t>
+  </si>
+  <si>
+    <t>CNc2cccc(N1CCC(O)CC1)c2</t>
+  </si>
+  <si>
+    <t>Secondary amines</t>
+  </si>
+  <si>
+    <t>O=C2c1ccccc1C(CBr)c3ccccc23</t>
+  </si>
+  <si>
+    <t>C1COC(C1)Br</t>
+  </si>
+  <si>
+    <t>C1=CSC=C1Br</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C=C1)CCl</t>
+  </si>
+  <si>
+    <t>FC(F)(F)Cc2cccc1CC(Cl)Cc12</t>
+  </si>
+  <si>
+    <t>CC(Br)Cc2cccc3c1ccccc1oc23</t>
+  </si>
+  <si>
+    <t>BrCCc2ccc1nonc1c2</t>
+  </si>
+  <si>
+    <t>COc1ccc(CBr)cc1C2CCCC2</t>
+  </si>
+  <si>
+    <t>CCN(CC)C(Br)Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>Cc2cc(N1CCCC1)cc(C)c2CBr</t>
+  </si>
+  <si>
+    <t>ATCGTACGTCA</t>
+  </si>
+  <si>
+    <t>GCTAGTTAGCT</t>
+  </si>
+  <si>
+    <t>ATGCGCTGCAT</t>
+  </si>
+  <si>
+    <t>TACGCGCGCAT</t>
+  </si>
+  <si>
+    <t>CGATTTTATGC</t>
+  </si>
+  <si>
+    <t>GCTAGCCGATC</t>
+  </si>
+  <si>
+    <t>ACGTGCCGTCA</t>
+  </si>
+  <si>
+    <t>TGCAACGTGCA</t>
+  </si>
+  <si>
+    <t>GATCCGGCCTAG</t>
+  </si>
+  <si>
+    <t>CTAGGATGGATC</t>
+  </si>
+  <si>
+    <t>AGCTTAACTGA</t>
+  </si>
+  <si>
+    <t>TGCGAAGCGCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,14 +176,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Menlo"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,10 +218,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,99 +543,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1776CE-57E9-F54A-A0FD-209347A2FDAE}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="C10" t="s">
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
